--- a/papier/New_analyses_graphiques/DoNotTrackMe-detailed-Ghostery.xlsx
+++ b/papier/New_analyses_graphiques/DoNotTrackMe-detailed-Ghostery.xlsx
@@ -3015,49 +3015,10 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:hPercent val="60"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:ofPieChart>
+        <c:ofPieType val="pie"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3102,7 +3063,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3145,7 +3105,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3188,7 +3147,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3231,7 +3189,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3274,7 +3231,6 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -3317,10 +3273,55 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3645223752659988E-2"/>
+                  <c:y val="-2.2985075167118937E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9103313253724018E-2"/>
+                  <c:y val="-1.253731372751943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3335,7 +3336,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3357,7 +3358,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:separator>, </c:separator>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -3448,7 +3450,25 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="0"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:gapWidth val="100"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="5"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3473,7 +3493,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4067,7 +4087,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4078,7 +4098,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307286" cy="6077857"/>
+    <xdr:ext cx="9294725" cy="6070879"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
